--- a/scraper/top_remaining_spreadsheets_states/top_remaining_TN.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_TN.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="107">
   <si>
     <t>STATE</t>
   </si>
@@ -44,48 +44,54 @@
     <t>Lucky Dog</t>
   </si>
   <si>
-    <t>2019-03-07</t>
+    <t>2019-03-12</t>
   </si>
   <si>
     <t>Wild 8s</t>
   </si>
   <si>
+    <t>Pot of Gold</t>
+  </si>
+  <si>
     <t>$5,000 Jackpot</t>
   </si>
   <si>
-    <t>Pot of Gold</t>
-  </si>
-  <si>
     <t>$50 Frenzy</t>
   </si>
   <si>
     <t>Triple Cash</t>
   </si>
   <si>
+    <t>Hit $50</t>
+  </si>
+  <si>
     <t>15th Anniversary Cash</t>
   </si>
   <si>
+    <t>Lucky 7's</t>
+  </si>
+  <si>
+    <t>Holiday Sparkle</t>
+  </si>
+  <si>
+    <t>10X</t>
+  </si>
+  <si>
     <t>7-11-21®</t>
   </si>
   <si>
     <t>2019-02-22</t>
   </si>
   <si>
+    <t>Junior Jumbo Bucks</t>
+  </si>
+  <si>
+    <t>2019-03-09</t>
+  </si>
+  <si>
     <t>10X®</t>
   </si>
   <si>
-    <t>Junior Jumbo Bucks</t>
-  </si>
-  <si>
-    <t>Lucky 7's</t>
-  </si>
-  <si>
-    <t>Holiday Sparkle</t>
-  </si>
-  <si>
-    <t>10X</t>
-  </si>
-  <si>
     <t>Love To Win!</t>
   </si>
   <si>
@@ -107,16 +113,19 @@
     <t>Winning 7's</t>
   </si>
   <si>
+    <t>Lucky 13</t>
+  </si>
+  <si>
     <t>Black Cherry Doubler</t>
   </si>
   <si>
-    <t>Lucky 13</t>
+    <t>$100 Frenzy</t>
   </si>
   <si>
     <t>UNO™</t>
   </si>
   <si>
-    <t>$100 Frenzy</t>
+    <t>Hit $100</t>
   </si>
   <si>
     <t>Money Multiplier</t>
@@ -134,18 +143,18 @@
     <t>Bankroll Tripler</t>
   </si>
   <si>
+    <t>$30,000 Money Bags</t>
+  </si>
+  <si>
+    <t>Money Mania</t>
+  </si>
+  <si>
+    <t>Jumbo Bucks</t>
+  </si>
+  <si>
     <t>$20 Grand</t>
   </si>
   <si>
-    <t>$30,000 Money Bags</t>
-  </si>
-  <si>
-    <t>Money Mania</t>
-  </si>
-  <si>
-    <t>Jumbo Bucks</t>
-  </si>
-  <si>
     <t>Royal Win</t>
   </si>
   <si>
@@ -167,12 +176,12 @@
     <t>Tennessee Slingo®</t>
   </si>
   <si>
+    <t>Jumbo Bucks Crossword</t>
+  </si>
+  <si>
     <t>Jumbo Bucks Seasons</t>
   </si>
   <si>
-    <t>Jumbo Bucks Crossword</t>
-  </si>
-  <si>
     <t>Lady Jumbo Bucks</t>
   </si>
   <si>
@@ -188,51 +197,54 @@
     <t>$200,000 Big Money</t>
   </si>
   <si>
+    <t>Giant Jumbo Bucks</t>
+  </si>
+  <si>
+    <t>Tennessee Powerball and Mega Millions</t>
+  </si>
+  <si>
+    <t>7 Series</t>
+  </si>
+  <si>
+    <t>$500 Frenzy</t>
+  </si>
+  <si>
+    <t>Green &amp; Gold</t>
+  </si>
+  <si>
     <t>White Hot 5's</t>
   </si>
   <si>
-    <t>Tennessee Powerball and Mega Millions</t>
-  </si>
-  <si>
-    <t>7 Series</t>
-  </si>
-  <si>
-    <t>Giant Jumbo Bucks</t>
-  </si>
-  <si>
-    <t>$500 Frenzy</t>
-  </si>
-  <si>
-    <t>Green &amp; Gold</t>
-  </si>
-  <si>
     <t>Winning Streak</t>
   </si>
   <si>
     <t>Wild Win!</t>
   </si>
   <si>
+    <t>Hit $500</t>
+  </si>
+  <si>
+    <t>Neon</t>
+  </si>
+  <si>
+    <t>Diamond Riches</t>
+  </si>
+  <si>
+    <t>50X</t>
+  </si>
+  <si>
+    <t>Ca$H Fever</t>
+  </si>
+  <si>
     <t>Heat Wave</t>
   </si>
   <si>
-    <t>Diamond Riches</t>
-  </si>
-  <si>
-    <t>Neon</t>
-  </si>
-  <si>
-    <t>50X</t>
-  </si>
-  <si>
-    <t>Ca$H Fever</t>
+    <t>Monopoly</t>
   </si>
   <si>
     <t>Giant Jumbo Bucks Crossword</t>
   </si>
   <si>
-    <t>Monopoly</t>
-  </si>
-  <si>
     <t>Happy Mother's Day!</t>
   </si>
   <si>
@@ -251,16 +263,19 @@
     <t>Diamond 10s</t>
   </si>
   <si>
+    <t>Scorching Hot 5's</t>
+  </si>
+  <si>
+    <t>Silver Bells</t>
+  </si>
+  <si>
+    <t>Hit $5,000</t>
+  </si>
+  <si>
     <t>Emerald 10's</t>
   </si>
   <si>
-    <t>Scorching Hot 5's</t>
-  </si>
-  <si>
     <t>Win Big</t>
-  </si>
-  <si>
-    <t>Silver Bells</t>
   </si>
   <si>
     <t>Cash Blast</t>
@@ -659,7 +674,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F96"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -738,7 +753,7 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>782</v>
+        <v>742</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -758,7 +773,7 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <v>742</v>
+        <v>782</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -818,10 +833,10 @@
         <v>15</v>
       </c>
       <c r="D8">
-        <v>797</v>
+        <v>811</v>
       </c>
       <c r="E8">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -838,13 +853,13 @@
         <v>16</v>
       </c>
       <c r="D9">
-        <v>764</v>
+        <v>797</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -855,16 +870,16 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>738</v>
+        <v>762</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -875,13 +890,13 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11">
-        <v>751</v>
+        <v>792</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -895,13 +910,13 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>762</v>
+        <v>803</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
@@ -915,16 +930,16 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>764</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
         <v>21</v>
-      </c>
-      <c r="D13">
-        <v>792</v>
-      </c>
-      <c r="E13">
-        <v>46</v>
-      </c>
-      <c r="F13" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -938,13 +953,13 @@
         <v>22</v>
       </c>
       <c r="D14">
-        <v>803</v>
+        <v>751</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -954,17 +969,17 @@
       <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="C15">
-        <v>333</v>
+      <c r="C15" t="s">
+        <v>24</v>
       </c>
       <c r="D15">
-        <v>770</v>
+        <v>738</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -974,17 +989,17 @@
       <c r="B16" t="s">
         <v>7</v>
       </c>
-      <c r="C16" t="s">
-        <v>23</v>
+      <c r="C16">
+        <v>333</v>
       </c>
       <c r="D16">
-        <v>734</v>
+        <v>770</v>
       </c>
       <c r="E16">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -995,16 +1010,16 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17">
-        <v>774</v>
+        <v>734</v>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1015,16 +1030,16 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18">
-        <v>757</v>
+        <v>774</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1035,16 +1050,16 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D19">
-        <v>662</v>
+        <v>757</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1052,19 +1067,19 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D20">
-        <v>739</v>
+        <v>662</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1072,19 +1087,19 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D21">
-        <v>775</v>
+        <v>739</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1092,13 +1107,13 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D22">
-        <v>743</v>
+        <v>775</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -1112,13 +1127,13 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D23">
-        <v>727</v>
+        <v>743</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -1132,10 +1147,10 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D24">
         <v>787</v>
@@ -1152,16 +1167,16 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D25">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
@@ -1172,10 +1187,10 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D26">
         <v>747</v>
@@ -1192,16 +1207,16 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D27">
-        <v>779</v>
+        <v>735</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
@@ -1212,13 +1227,13 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D28">
-        <v>718</v>
+        <v>812</v>
       </c>
       <c r="E28">
         <v>2</v>
@@ -1232,16 +1247,16 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D29">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29" t="s">
         <v>9</v>
@@ -1252,13 +1267,13 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D30">
-        <v>793</v>
+        <v>718</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -1272,16 +1287,16 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D31">
-        <v>765</v>
+        <v>783</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31" t="s">
         <v>9</v>
@@ -1292,19 +1307,19 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32">
-        <v>701</v>
+        <v>793</v>
       </c>
       <c r="E32">
         <v>2</v>
       </c>
       <c r="F32" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1312,13 +1327,13 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D33">
-        <v>723</v>
+        <v>765</v>
       </c>
       <c r="E33">
         <v>2</v>
@@ -1332,16 +1347,16 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D34">
-        <v>804</v>
+        <v>723</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34" t="s">
         <v>9</v>
@@ -1352,10 +1367,10 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D35">
         <v>771</v>
@@ -1372,16 +1387,16 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D36">
         <v>752</v>
       </c>
       <c r="E36">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F36" t="s">
         <v>9</v>
@@ -1392,19 +1407,19 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D37">
-        <v>808</v>
+        <v>701</v>
       </c>
       <c r="E37">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F37" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1412,16 +1427,16 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D38">
-        <v>798</v>
+        <v>808</v>
       </c>
       <c r="E38">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F38" t="s">
         <v>9</v>
@@ -1432,19 +1447,19 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C39" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D39">
-        <v>712</v>
+        <v>804</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1452,19 +1467,19 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D40">
-        <v>704</v>
+        <v>798</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1472,19 +1487,19 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
       </c>
       <c r="D41">
-        <v>754</v>
+        <v>712</v>
       </c>
       <c r="E41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1492,19 +1507,19 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
       </c>
       <c r="D42">
-        <v>719</v>
+        <v>704</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1512,16 +1527,16 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D43">
-        <v>861</v>
+        <v>754</v>
       </c>
       <c r="E43">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F43" t="s">
         <v>9</v>
@@ -1532,16 +1547,16 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D44">
-        <v>756</v>
+        <v>719</v>
       </c>
       <c r="E44">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F44" t="s">
         <v>9</v>
@@ -1552,16 +1567,16 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D45">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="E45">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F45" t="s">
         <v>9</v>
@@ -1572,19 +1587,19 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D46">
-        <v>761</v>
+        <v>861</v>
       </c>
       <c r="E46">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F46" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1592,19 +1607,19 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D47">
-        <v>656</v>
+        <v>753</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1612,19 +1627,19 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C48" t="s">
         <v>54</v>
       </c>
       <c r="D48">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F48" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1632,19 +1647,19 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" t="s">
         <v>53</v>
       </c>
-      <c r="C49" t="s">
-        <v>55</v>
-      </c>
       <c r="D49">
-        <v>615</v>
+        <v>656</v>
       </c>
       <c r="E49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1652,13 +1667,13 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D50">
-        <v>724</v>
+        <v>769</v>
       </c>
       <c r="E50">
         <v>2</v>
@@ -1672,19 +1687,19 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D51">
-        <v>716</v>
+        <v>615</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F51" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1692,13 +1707,13 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D52">
-        <v>784</v>
+        <v>724</v>
       </c>
       <c r="E52">
         <v>2</v>
@@ -1712,16 +1727,16 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D53">
-        <v>794</v>
+        <v>855</v>
       </c>
       <c r="E53">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F53" t="s">
         <v>9</v>
@@ -1732,16 +1747,16 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D54">
-        <v>855</v>
+        <v>784</v>
       </c>
       <c r="E54">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F54" t="s">
         <v>9</v>
@@ -1752,13 +1767,13 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D55">
-        <v>748</v>
+        <v>794</v>
       </c>
       <c r="E55">
         <v>2</v>
@@ -1772,13 +1787,13 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C56" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D56">
-        <v>788</v>
+        <v>748</v>
       </c>
       <c r="E56">
         <v>2</v>
@@ -1792,16 +1807,16 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D57">
-        <v>759</v>
+        <v>788</v>
       </c>
       <c r="E57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F57" t="s">
         <v>9</v>
@@ -1812,19 +1827,19 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C58" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D58">
-        <v>776</v>
+        <v>716</v>
       </c>
       <c r="E58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1832,13 +1847,13 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C59" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D59">
-        <v>772</v>
+        <v>759</v>
       </c>
       <c r="E59">
         <v>3</v>
@@ -1852,13 +1867,13 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C60" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D60">
-        <v>736</v>
+        <v>776</v>
       </c>
       <c r="E60">
         <v>2</v>
@@ -1872,13 +1887,13 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C61" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D61">
-        <v>799</v>
+        <v>813</v>
       </c>
       <c r="E61">
         <v>3</v>
@@ -1892,13 +1907,13 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C62" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D62">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="E62">
         <v>3</v>
@@ -1912,13 +1927,13 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C63" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D63">
-        <v>780</v>
+        <v>736</v>
       </c>
       <c r="E63">
         <v>2</v>
@@ -1932,13 +1947,13 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C64" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D64">
-        <v>857</v>
+        <v>805</v>
       </c>
       <c r="E64">
         <v>3</v>
@@ -1952,16 +1967,16 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C65" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D65">
-        <v>955</v>
+        <v>780</v>
       </c>
       <c r="E65">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F65" t="s">
         <v>9</v>
@@ -1972,13 +1987,13 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C66" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D66">
-        <v>809</v>
+        <v>772</v>
       </c>
       <c r="E66">
         <v>2</v>
@@ -1992,19 +2007,19 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C67" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D67">
-        <v>768</v>
+        <v>955</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F67" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2012,19 +2027,19 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>53</v>
-      </c>
-      <c r="C68">
-        <v>777</v>
+        <v>56</v>
+      </c>
+      <c r="C68" t="s">
+        <v>74</v>
       </c>
       <c r="D68">
-        <v>720</v>
+        <v>809</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F68" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2032,19 +2047,19 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C69" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D69">
-        <v>740</v>
+        <v>857</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F69" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2052,19 +2067,19 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C70" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D70">
-        <v>741</v>
+        <v>768</v>
       </c>
       <c r="E70">
         <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2072,19 +2087,19 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
-      </c>
-      <c r="C71" t="s">
-        <v>75</v>
+        <v>56</v>
+      </c>
+      <c r="C71">
+        <v>777</v>
       </c>
       <c r="D71">
-        <v>706</v>
+        <v>720</v>
       </c>
       <c r="E71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F71" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2092,19 +2107,19 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C72" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D72">
-        <v>850</v>
+        <v>740</v>
       </c>
       <c r="E72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F72" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2112,13 +2127,13 @@
         <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C73" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D73">
-        <v>767</v>
+        <v>741</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -2132,13 +2147,13 @@
         <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D74">
-        <v>785</v>
+        <v>706</v>
       </c>
       <c r="E74">
         <v>2</v>
@@ -2152,13 +2167,13 @@
         <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D75">
-        <v>717</v>
+        <v>850</v>
       </c>
       <c r="E75">
         <v>2</v>
@@ -2172,16 +2187,16 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D76">
-        <v>806</v>
+        <v>767</v>
       </c>
       <c r="E76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F76" t="s">
         <v>9</v>
@@ -2192,13 +2207,13 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C77" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D77">
-        <v>777</v>
+        <v>717</v>
       </c>
       <c r="E77">
         <v>2</v>
@@ -2212,10 +2227,10 @@
         <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C78" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D78">
         <v>795</v>
@@ -2232,16 +2247,16 @@
         <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C79" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D79">
-        <v>643</v>
+        <v>814</v>
       </c>
       <c r="E79">
-        <v>608</v>
+        <v>3</v>
       </c>
       <c r="F79" t="s">
         <v>9</v>
@@ -2252,16 +2267,16 @@
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C80" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D80">
-        <v>899</v>
+        <v>806</v>
       </c>
       <c r="E80">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F80" t="s">
         <v>9</v>
@@ -2272,13 +2287,13 @@
         <v>6</v>
       </c>
       <c r="B81" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C81" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D81">
-        <v>647</v>
+        <v>785</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -2292,13 +2307,13 @@
         <v>6</v>
       </c>
       <c r="B82" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C82" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D82">
-        <v>374</v>
+        <v>777</v>
       </c>
       <c r="E82">
         <v>2</v>
@@ -2312,16 +2327,16 @@
         <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C83" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D83">
-        <v>781</v>
+        <v>899</v>
       </c>
       <c r="E83">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F83" t="s">
         <v>9</v>
@@ -2332,16 +2347,16 @@
         <v>6</v>
       </c>
       <c r="B84" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C84" t="s">
         <v>87</v>
       </c>
       <c r="D84">
-        <v>749</v>
+        <v>643</v>
       </c>
       <c r="E84">
-        <v>4</v>
+        <v>564</v>
       </c>
       <c r="F84" t="s">
         <v>9</v>
@@ -2352,16 +2367,16 @@
         <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D85">
-        <v>773</v>
+        <v>647</v>
       </c>
       <c r="E85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F85" t="s">
         <v>9</v>
@@ -2372,16 +2387,16 @@
         <v>6</v>
       </c>
       <c r="B86" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D86">
-        <v>789</v>
+        <v>374</v>
       </c>
       <c r="E86">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F86" t="s">
         <v>9</v>
@@ -2392,16 +2407,16 @@
         <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D87">
-        <v>810</v>
+        <v>781</v>
       </c>
       <c r="E87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F87" t="s">
         <v>9</v>
@@ -2412,16 +2427,16 @@
         <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C88" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D88">
-        <v>721</v>
+        <v>749</v>
       </c>
       <c r="E88">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F88" t="s">
         <v>9</v>
@@ -2432,13 +2447,13 @@
         <v>6</v>
       </c>
       <c r="B89" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C89" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D89">
-        <v>760</v>
+        <v>773</v>
       </c>
       <c r="E89">
         <v>2</v>
@@ -2452,16 +2467,16 @@
         <v>6</v>
       </c>
       <c r="B90" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C90" t="s">
         <v>94</v>
       </c>
       <c r="D90">
-        <v>890</v>
+        <v>789</v>
       </c>
       <c r="E90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F90" t="s">
         <v>9</v>
@@ -2472,16 +2487,16 @@
         <v>6</v>
       </c>
       <c r="B91" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C91" t="s">
         <v>95</v>
       </c>
       <c r="D91">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="E91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F91" t="s">
         <v>9</v>
@@ -2492,13 +2507,13 @@
         <v>6</v>
       </c>
       <c r="B92" t="s">
+        <v>88</v>
+      </c>
+      <c r="C92" t="s">
         <v>96</v>
       </c>
-      <c r="C92" t="s">
-        <v>97</v>
-      </c>
       <c r="D92">
-        <v>791</v>
+        <v>721</v>
       </c>
       <c r="E92">
         <v>2</v>
@@ -2512,16 +2527,16 @@
         <v>6</v>
       </c>
       <c r="B93" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C93" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D93">
-        <v>599</v>
+        <v>760</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F93" t="s">
         <v>9</v>
@@ -2532,16 +2547,16 @@
         <v>6</v>
       </c>
       <c r="B94" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C94" t="s">
         <v>99</v>
       </c>
       <c r="D94">
-        <v>802</v>
+        <v>890</v>
       </c>
       <c r="E94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F94" t="s">
         <v>9</v>
@@ -2552,13 +2567,13 @@
         <v>6</v>
       </c>
       <c r="B95" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C95" t="s">
         <v>100</v>
       </c>
       <c r="D95">
-        <v>891</v>
+        <v>737</v>
       </c>
       <c r="E95">
         <v>2</v>
@@ -2572,19 +2587,99 @@
         <v>6</v>
       </c>
       <c r="B96" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C96" t="s">
+        <v>102</v>
+      </c>
+      <c r="D96">
+        <v>791</v>
+      </c>
+      <c r="E96">
+        <v>2</v>
+      </c>
+      <c r="F96" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97" t="s">
         <v>101</v>
       </c>
-      <c r="D96">
+      <c r="C97" t="s">
+        <v>103</v>
+      </c>
+      <c r="D97">
+        <v>599</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" t="s">
+        <v>101</v>
+      </c>
+      <c r="C98" t="s">
+        <v>104</v>
+      </c>
+      <c r="D98">
+        <v>802</v>
+      </c>
+      <c r="E98">
+        <v>3</v>
+      </c>
+      <c r="F98" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" t="s">
+        <v>101</v>
+      </c>
+      <c r="C99" t="s">
+        <v>105</v>
+      </c>
+      <c r="D99">
+        <v>891</v>
+      </c>
+      <c r="E99">
+        <v>2</v>
+      </c>
+      <c r="F99" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100" t="s">
+        <v>101</v>
+      </c>
+      <c r="C100" t="s">
+        <v>106</v>
+      </c>
+      <c r="D100">
         <v>745</v>
       </c>
-      <c r="E96">
+      <c r="E100">
         <v>0</v>
       </c>
-      <c r="F96" t="s">
-        <v>17</v>
+      <c r="F100" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/scraper/top_remaining_spreadsheets_states/top_remaining_TN.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_TN.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
   <si>
     <t>STATE</t>
   </si>
@@ -44,24 +44,24 @@
     <t>Lucky Dog</t>
   </si>
   <si>
-    <t>2019-03-12</t>
+    <t>2019-04-11</t>
+  </si>
+  <si>
+    <t>$5,000 Jackpot</t>
+  </si>
+  <si>
+    <t>Pot of Gold</t>
+  </si>
+  <si>
+    <t>Triple Cash</t>
   </si>
   <si>
     <t>Wild 8s</t>
   </si>
   <si>
-    <t>Pot of Gold</t>
-  </si>
-  <si>
-    <t>$5,000 Jackpot</t>
-  </si>
-  <si>
     <t>$50 Frenzy</t>
   </si>
   <si>
-    <t>Triple Cash</t>
-  </si>
-  <si>
     <t>Hit $50</t>
   </si>
   <si>
@@ -71,102 +71,78 @@
     <t>Lucky 7's</t>
   </si>
   <si>
+    <t>10X</t>
+  </si>
+  <si>
+    <t>Junior Jumbo Bucks</t>
+  </si>
+  <si>
+    <t>Sevens Elevens</t>
+  </si>
+  <si>
     <t>Holiday Sparkle</t>
   </si>
   <si>
-    <t>10X</t>
-  </si>
-  <si>
-    <t>7-11-21®</t>
-  </si>
-  <si>
-    <t>2019-02-22</t>
-  </si>
-  <si>
-    <t>Junior Jumbo Bucks</t>
-  </si>
-  <si>
-    <t>2019-03-09</t>
-  </si>
-  <si>
-    <t>10X®</t>
-  </si>
-  <si>
-    <t>Love To Win!</t>
-  </si>
-  <si>
-    <t>Color Me Happy</t>
-  </si>
-  <si>
-    <t>Blackjack</t>
-  </si>
-  <si>
     <t>$2.00 Games</t>
   </si>
   <si>
+    <t>Payday!</t>
+  </si>
+  <si>
+    <t>Winning 7's</t>
+  </si>
+  <si>
+    <t>Lucky 13</t>
+  </si>
+  <si>
+    <t>Black Cherry Doubler</t>
+  </si>
+  <si>
+    <t>$100 Frenzy</t>
+  </si>
+  <si>
+    <t>UNO™</t>
+  </si>
+  <si>
+    <t>Money Multiplier</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>$20,000 Holiday Gifts</t>
+  </si>
+  <si>
+    <t>Bankroll Tripler</t>
+  </si>
+  <si>
+    <t>$30,000 Money Bags</t>
+  </si>
+  <si>
+    <t>Hit $100</t>
+  </si>
+  <si>
+    <t>Money Mania</t>
+  </si>
+  <si>
+    <t>Royal Win</t>
+  </si>
+  <si>
+    <t>Pay Me!</t>
+  </si>
+  <si>
+    <t>Jumbo Bucks</t>
+  </si>
+  <si>
+    <t>15th Anniversary Riches</t>
+  </si>
+  <si>
+    <t>Neon 7's</t>
+  </si>
+  <si>
     <t>20X</t>
   </si>
   <si>
-    <t>Payday!</t>
-  </si>
-  <si>
-    <t>Winning 7's</t>
-  </si>
-  <si>
-    <t>Lucky 13</t>
-  </si>
-  <si>
-    <t>Black Cherry Doubler</t>
-  </si>
-  <si>
-    <t>$100 Frenzy</t>
-  </si>
-  <si>
-    <t>UNO™</t>
-  </si>
-  <si>
-    <t>Hit $100</t>
-  </si>
-  <si>
-    <t>Money Multiplier</t>
-  </si>
-  <si>
-    <t>Pay Me!</t>
-  </si>
-  <si>
-    <t>$</t>
-  </si>
-  <si>
-    <t>$20,000 Holiday Gifts</t>
-  </si>
-  <si>
-    <t>Bankroll Tripler</t>
-  </si>
-  <si>
-    <t>$30,000 Money Bags</t>
-  </si>
-  <si>
-    <t>Money Mania</t>
-  </si>
-  <si>
-    <t>Jumbo Bucks</t>
-  </si>
-  <si>
-    <t>$20 Grand</t>
-  </si>
-  <si>
-    <t>Royal Win</t>
-  </si>
-  <si>
-    <t>15th Anniversary Riches</t>
-  </si>
-  <si>
-    <t>Red White &amp; Blue Doubler</t>
-  </si>
-  <si>
-    <t>Money Maker</t>
-  </si>
-  <si>
     <t>$3.00 Games</t>
   </si>
   <si>
@@ -179,63 +155,60 @@
     <t>Jumbo Bucks Crossword</t>
   </si>
   <si>
+    <t>Lady Jumbo Bucks</t>
+  </si>
+  <si>
     <t>Jumbo Bucks Seasons</t>
   </si>
   <si>
-    <t>Lady Jumbo Bucks</t>
-  </si>
-  <si>
     <t>$5.00 Games</t>
   </si>
   <si>
+    <t>Double Sided Dollar$</t>
+  </si>
+  <si>
     <t>High Roller</t>
   </si>
   <si>
-    <t>Double Sided Dollar$</t>
+    <t>Tennessee Powerball and Mega Millions</t>
+  </si>
+  <si>
+    <t>Giant Jumbo Bucks</t>
   </si>
   <si>
     <t>$200,000 Big Money</t>
   </si>
   <si>
-    <t>Giant Jumbo Bucks</t>
-  </si>
-  <si>
-    <t>Tennessee Powerball and Mega Millions</t>
+    <t>$500 Frenzy</t>
   </si>
   <si>
     <t>7 Series</t>
   </si>
   <si>
-    <t>$500 Frenzy</t>
+    <t>Winning Streak</t>
+  </si>
+  <si>
+    <t>Neon</t>
+  </si>
+  <si>
+    <t>Wild Win!</t>
+  </si>
+  <si>
+    <t>50X</t>
+  </si>
+  <si>
+    <t>Hit $500</t>
+  </si>
+  <si>
+    <t>Diamond Riches</t>
+  </si>
+  <si>
+    <t>Ca$H Fever</t>
   </si>
   <si>
     <t>Green &amp; Gold</t>
   </si>
   <si>
-    <t>White Hot 5's</t>
-  </si>
-  <si>
-    <t>Winning Streak</t>
-  </si>
-  <si>
-    <t>Wild Win!</t>
-  </si>
-  <si>
-    <t>Hit $500</t>
-  </si>
-  <si>
-    <t>Neon</t>
-  </si>
-  <si>
-    <t>Diamond Riches</t>
-  </si>
-  <si>
-    <t>50X</t>
-  </si>
-  <si>
-    <t>Ca$H Fever</t>
-  </si>
-  <si>
     <t>Heat Wave</t>
   </si>
   <si>
@@ -245,7 +218,7 @@
     <t>Giant Jumbo Bucks Crossword</t>
   </si>
   <si>
-    <t>Happy Mother's Day!</t>
+    <t>Lucky No. 7</t>
   </si>
   <si>
     <t>$10.00 Games</t>
@@ -260,33 +233,36 @@
     <t>Jumbo Jumbo Bucks</t>
   </si>
   <si>
+    <t>Silver Bells</t>
+  </si>
+  <si>
     <t>Diamond 10s</t>
   </si>
   <si>
     <t>Scorching Hot 5's</t>
   </si>
   <si>
-    <t>Silver Bells</t>
+    <t>Emerald 10's</t>
+  </si>
+  <si>
+    <t>Win Big</t>
+  </si>
+  <si>
+    <t>Cash Blast</t>
   </si>
   <si>
     <t>Hit $5,000</t>
   </si>
   <si>
-    <t>Emerald 10's</t>
-  </si>
-  <si>
-    <t>Win Big</t>
-  </si>
-  <si>
-    <t>Cash Blast</t>
-  </si>
-  <si>
     <t>$20.00 Games</t>
   </si>
   <si>
     <t>$1 Million Madness</t>
   </si>
   <si>
+    <t>Millionaire Jumbo Bucks</t>
+  </si>
+  <si>
     <t>$3,000,000 Mega Cash</t>
   </si>
   <si>
@@ -308,9 +284,6 @@
     <t>$1,000,000 Platinum Payout</t>
   </si>
   <si>
-    <t>Millionaire Jumbo Bucks</t>
-  </si>
-  <si>
     <t>$25.00 Games</t>
   </si>
   <si>
@@ -320,22 +293,22 @@
     <t>Ultimate 200X</t>
   </si>
   <si>
+    <t>Golden 7's</t>
+  </si>
+  <si>
     <t>$30.00 Games</t>
   </si>
   <si>
+    <t>Ultimate Millions</t>
+  </si>
+  <si>
     <t>Mighty Jumbo Bucks</t>
   </si>
   <si>
-    <t>Ultimate Millions</t>
+    <t>Gigantic Jumbo Bucks</t>
   </si>
   <si>
     <t>Jumbo Bucks 300X</t>
-  </si>
-  <si>
-    <t>Gigantic Jumbo Bucks</t>
-  </si>
-  <si>
-    <t>Limited Edition</t>
   </si>
 </sst>
 </file>
@@ -674,7 +647,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -716,7 +689,7 @@
         <v>778</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -733,10 +706,10 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -773,10 +746,10 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <v>782</v>
+        <v>807</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -793,10 +766,10 @@
         <v>13</v>
       </c>
       <c r="D6">
-        <v>746</v>
+        <v>786</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -813,10 +786,10 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>807</v>
+        <v>746</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -836,7 +809,7 @@
         <v>811</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -856,7 +829,7 @@
         <v>797</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -876,7 +849,7 @@
         <v>762</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -893,10 +866,10 @@
         <v>18</v>
       </c>
       <c r="D11">
-        <v>792</v>
+        <v>803</v>
       </c>
       <c r="E11">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -913,10 +886,10 @@
         <v>19</v>
       </c>
       <c r="D12">
-        <v>803</v>
+        <v>751</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
@@ -933,13 +906,13 @@
         <v>20</v>
       </c>
       <c r="D13">
-        <v>764</v>
+        <v>815</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -950,16 +923,16 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14">
-        <v>751</v>
+        <v>792</v>
       </c>
       <c r="E14">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -967,19 +940,19 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15">
-        <v>738</v>
+        <v>775</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -987,19 +960,19 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16">
-        <v>333</v>
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
       </c>
       <c r="D16">
-        <v>770</v>
+        <v>743</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1007,19 +980,19 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17">
-        <v>734</v>
+        <v>787</v>
       </c>
       <c r="E17">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1027,19 +1000,19 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
       </c>
       <c r="D18">
-        <v>774</v>
+        <v>727</v>
       </c>
       <c r="E18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1047,19 +1020,19 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
         <v>27</v>
       </c>
       <c r="D19">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1067,19 +1040,19 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D20">
-        <v>662</v>
+        <v>735</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1087,19 +1060,19 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
         <v>29</v>
       </c>
       <c r="D21">
-        <v>739</v>
+        <v>779</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1107,16 +1080,16 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
         <v>30</v>
       </c>
       <c r="D22">
-        <v>775</v>
+        <v>783</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
@@ -1127,13 +1100,13 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
         <v>31</v>
       </c>
       <c r="D23">
-        <v>743</v>
+        <v>793</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -1147,16 +1120,16 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
         <v>32</v>
       </c>
       <c r="D24">
-        <v>787</v>
+        <v>765</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" t="s">
         <v>9</v>
@@ -1167,13 +1140,13 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
         <v>33</v>
       </c>
       <c r="D25">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -1187,13 +1160,13 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
         <v>34</v>
       </c>
       <c r="D26">
-        <v>747</v>
+        <v>812</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -1207,16 +1180,16 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C27" t="s">
         <v>35</v>
       </c>
       <c r="D27">
-        <v>735</v>
+        <v>771</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
@@ -1227,16 +1200,16 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C28" t="s">
         <v>36</v>
       </c>
       <c r="D28">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -1247,13 +1220,13 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C29" t="s">
         <v>37</v>
       </c>
       <c r="D29">
-        <v>779</v>
+        <v>718</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1267,16 +1240,16 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C30" t="s">
         <v>38</v>
       </c>
       <c r="D30">
-        <v>718</v>
+        <v>752</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="F30" t="s">
         <v>9</v>
@@ -1287,16 +1260,16 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C31" t="s">
         <v>39</v>
       </c>
       <c r="D31">
-        <v>783</v>
+        <v>798</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F31" t="s">
         <v>9</v>
@@ -1307,16 +1280,16 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C32" t="s">
         <v>40</v>
       </c>
       <c r="D32">
-        <v>793</v>
+        <v>816</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
@@ -1327,16 +1300,16 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C33" t="s">
         <v>41</v>
       </c>
       <c r="D33">
-        <v>765</v>
+        <v>804</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -1347,16 +1320,16 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D34">
-        <v>723</v>
+        <v>754</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34" t="s">
         <v>9</v>
@@ -1367,16 +1340,16 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D35">
-        <v>771</v>
+        <v>719</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35" t="s">
         <v>9</v>
@@ -1387,16 +1360,16 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D36">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="E36">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="F36" t="s">
         <v>9</v>
@@ -1407,19 +1380,19 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D37">
-        <v>701</v>
+        <v>753</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1427,16 +1400,16 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D38">
-        <v>808</v>
+        <v>861</v>
       </c>
       <c r="E38">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F38" t="s">
         <v>9</v>
@@ -1447,13 +1420,13 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D39">
-        <v>804</v>
+        <v>615</v>
       </c>
       <c r="E39">
         <v>2</v>
@@ -1467,16 +1440,16 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D40">
-        <v>798</v>
+        <v>769</v>
       </c>
       <c r="E40">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F40" t="s">
         <v>9</v>
@@ -1487,19 +1460,19 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D41">
-        <v>712</v>
+        <v>784</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1507,19 +1480,19 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D42">
-        <v>704</v>
+        <v>855</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1527,16 +1500,16 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C43" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D43">
-        <v>754</v>
+        <v>724</v>
       </c>
       <c r="E43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F43" t="s">
         <v>9</v>
@@ -1547,16 +1520,16 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D44">
-        <v>719</v>
+        <v>748</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F44" t="s">
         <v>9</v>
@@ -1567,16 +1540,16 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D45">
-        <v>756</v>
+        <v>794</v>
       </c>
       <c r="E45">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F45" t="s">
         <v>9</v>
@@ -1587,16 +1560,16 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D46">
-        <v>861</v>
+        <v>759</v>
       </c>
       <c r="E46">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F46" t="s">
         <v>9</v>
@@ -1607,19 +1580,19 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D47">
-        <v>753</v>
+        <v>799</v>
       </c>
       <c r="E47">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F47" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1627,19 +1600,19 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D48">
-        <v>761</v>
+        <v>776</v>
       </c>
       <c r="E48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F48" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1647,19 +1620,19 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D49">
-        <v>656</v>
+        <v>805</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F49" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1667,16 +1640,16 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D50">
-        <v>769</v>
+        <v>813</v>
       </c>
       <c r="E50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F50" t="s">
         <v>9</v>
@@ -1687,13 +1660,13 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C51" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D51">
-        <v>615</v>
+        <v>736</v>
       </c>
       <c r="E51">
         <v>2</v>
@@ -1707,13 +1680,13 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C52" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D52">
-        <v>724</v>
+        <v>780</v>
       </c>
       <c r="E52">
         <v>2</v>
@@ -1727,16 +1700,16 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C53" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D53">
-        <v>855</v>
+        <v>788</v>
       </c>
       <c r="E53">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F53" t="s">
         <v>9</v>
@@ -1747,16 +1720,16 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C54" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D54">
-        <v>784</v>
+        <v>955</v>
       </c>
       <c r="E54">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F54" t="s">
         <v>9</v>
@@ -1767,13 +1740,13 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C55" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D55">
-        <v>794</v>
+        <v>772</v>
       </c>
       <c r="E55">
         <v>2</v>
@@ -1787,13 +1760,13 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C56" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D56">
-        <v>748</v>
+        <v>809</v>
       </c>
       <c r="E56">
         <v>2</v>
@@ -1807,13 +1780,13 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C57" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D57">
-        <v>788</v>
+        <v>857</v>
       </c>
       <c r="E57">
         <v>2</v>
@@ -1827,19 +1800,19 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C58" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D58">
-        <v>716</v>
+        <v>817</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F58" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1847,16 +1820,16 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C59" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D59">
-        <v>759</v>
+        <v>741</v>
       </c>
       <c r="E59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F59" t="s">
         <v>9</v>
@@ -1867,13 +1840,13 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C60" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D60">
-        <v>776</v>
+        <v>706</v>
       </c>
       <c r="E60">
         <v>2</v>
@@ -1887,16 +1860,16 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C61" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D61">
-        <v>813</v>
+        <v>850</v>
       </c>
       <c r="E61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F61" t="s">
         <v>9</v>
@@ -1907,16 +1880,16 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C62" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D62">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="E62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F62" t="s">
         <v>9</v>
@@ -1927,16 +1900,16 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C63" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D63">
-        <v>736</v>
+        <v>767</v>
       </c>
       <c r="E63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F63" t="s">
         <v>9</v>
@@ -1947,16 +1920,16 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C64" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D64">
-        <v>805</v>
+        <v>717</v>
       </c>
       <c r="E64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F64" t="s">
         <v>9</v>
@@ -1967,16 +1940,16 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D65">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="E65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F65" t="s">
         <v>9</v>
@@ -1987,13 +1960,13 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D66">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="E66">
         <v>2</v>
@@ -2007,16 +1980,16 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D67">
-        <v>955</v>
+        <v>806</v>
       </c>
       <c r="E67">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F67" t="s">
         <v>9</v>
@@ -2027,16 +2000,16 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C68" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D68">
-        <v>809</v>
+        <v>643</v>
       </c>
       <c r="E68">
-        <v>2</v>
+        <v>450</v>
       </c>
       <c r="F68" t="s">
         <v>9</v>
@@ -2047,13 +2020,13 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D69">
-        <v>857</v>
+        <v>814</v>
       </c>
       <c r="E69">
         <v>2</v>
@@ -2067,19 +2040,19 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C70" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D70">
-        <v>768</v>
+        <v>899</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F70" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2087,19 +2060,19 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>56</v>
-      </c>
-      <c r="C71">
-        <v>777</v>
+        <v>79</v>
+      </c>
+      <c r="C71" t="s">
+        <v>80</v>
       </c>
       <c r="D71">
-        <v>720</v>
+        <v>647</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2107,19 +2080,19 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="C72" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="D72">
-        <v>740</v>
+        <v>760</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F72" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2127,16 +2100,16 @@
         <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C73" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D73">
-        <v>741</v>
+        <v>374</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F73" t="s">
         <v>9</v>
@@ -2147,13 +2120,13 @@
         <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C74" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D74">
-        <v>706</v>
+        <v>781</v>
       </c>
       <c r="E74">
         <v>2</v>
@@ -2167,16 +2140,16 @@
         <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C75" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D75">
-        <v>850</v>
+        <v>749</v>
       </c>
       <c r="E75">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F75" t="s">
         <v>9</v>
@@ -2187,16 +2160,16 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D76">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F76" t="s">
         <v>9</v>
@@ -2207,16 +2180,16 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D77">
-        <v>717</v>
+        <v>789</v>
       </c>
       <c r="E77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F77" t="s">
         <v>9</v>
@@ -2227,16 +2200,16 @@
         <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D78">
-        <v>795</v>
+        <v>810</v>
       </c>
       <c r="E78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F78" t="s">
         <v>9</v>
@@ -2247,16 +2220,16 @@
         <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C79" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D79">
-        <v>814</v>
+        <v>721</v>
       </c>
       <c r="E79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F79" t="s">
         <v>9</v>
@@ -2267,16 +2240,16 @@
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C80" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D80">
-        <v>806</v>
+        <v>890</v>
       </c>
       <c r="E80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F80" t="s">
         <v>9</v>
@@ -2287,16 +2260,16 @@
         <v>6</v>
       </c>
       <c r="B81" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C81" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D81">
-        <v>785</v>
+        <v>737</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F81" t="s">
         <v>9</v>
@@ -2307,16 +2280,16 @@
         <v>6</v>
       </c>
       <c r="B82" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C82" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D82">
-        <v>777</v>
+        <v>818</v>
       </c>
       <c r="E82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F82" t="s">
         <v>9</v>
@@ -2327,16 +2300,16 @@
         <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="C83" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="D83">
-        <v>899</v>
+        <v>599</v>
       </c>
       <c r="E83">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F83" t="s">
         <v>9</v>
@@ -2347,16 +2320,16 @@
         <v>6</v>
       </c>
       <c r="B84" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="C84" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D84">
-        <v>643</v>
+        <v>791</v>
       </c>
       <c r="E84">
-        <v>564</v>
+        <v>2</v>
       </c>
       <c r="F84" t="s">
         <v>9</v>
@@ -2367,16 +2340,16 @@
         <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C85" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D85">
-        <v>647</v>
+        <v>891</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F85" t="s">
         <v>9</v>
@@ -2387,299 +2360,19 @@
         <v>6</v>
       </c>
       <c r="B86" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C86" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D86">
-        <v>374</v>
+        <v>802</v>
       </c>
       <c r="E86">
         <v>2</v>
       </c>
       <c r="F86" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" t="s">
-        <v>6</v>
-      </c>
-      <c r="B87" t="s">
-        <v>88</v>
-      </c>
-      <c r="C87" t="s">
-        <v>91</v>
-      </c>
-      <c r="D87">
-        <v>781</v>
-      </c>
-      <c r="E87">
-        <v>2</v>
-      </c>
-      <c r="F87" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" t="s">
-        <v>6</v>
-      </c>
-      <c r="B88" t="s">
-        <v>88</v>
-      </c>
-      <c r="C88" t="s">
-        <v>92</v>
-      </c>
-      <c r="D88">
-        <v>749</v>
-      </c>
-      <c r="E88">
-        <v>4</v>
-      </c>
-      <c r="F88" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" t="s">
-        <v>6</v>
-      </c>
-      <c r="B89" t="s">
-        <v>88</v>
-      </c>
-      <c r="C89" t="s">
-        <v>93</v>
-      </c>
-      <c r="D89">
-        <v>773</v>
-      </c>
-      <c r="E89">
-        <v>2</v>
-      </c>
-      <c r="F89" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" t="s">
-        <v>6</v>
-      </c>
-      <c r="B90" t="s">
-        <v>88</v>
-      </c>
-      <c r="C90" t="s">
-        <v>94</v>
-      </c>
-      <c r="D90">
-        <v>789</v>
-      </c>
-      <c r="E90">
-        <v>3</v>
-      </c>
-      <c r="F90" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" t="s">
-        <v>6</v>
-      </c>
-      <c r="B91" t="s">
-        <v>88</v>
-      </c>
-      <c r="C91" t="s">
-        <v>95</v>
-      </c>
-      <c r="D91">
-        <v>810</v>
-      </c>
-      <c r="E91">
-        <v>3</v>
-      </c>
-      <c r="F91" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" t="s">
-        <v>6</v>
-      </c>
-      <c r="B92" t="s">
-        <v>88</v>
-      </c>
-      <c r="C92" t="s">
-        <v>96</v>
-      </c>
-      <c r="D92">
-        <v>721</v>
-      </c>
-      <c r="E92">
-        <v>2</v>
-      </c>
-      <c r="F92" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93" t="s">
-        <v>6</v>
-      </c>
-      <c r="B93" t="s">
-        <v>88</v>
-      </c>
-      <c r="C93" t="s">
-        <v>97</v>
-      </c>
-      <c r="D93">
-        <v>760</v>
-      </c>
-      <c r="E93">
-        <v>2</v>
-      </c>
-      <c r="F93" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" t="s">
-        <v>6</v>
-      </c>
-      <c r="B94" t="s">
-        <v>98</v>
-      </c>
-      <c r="C94" t="s">
-        <v>99</v>
-      </c>
-      <c r="D94">
-        <v>890</v>
-      </c>
-      <c r="E94">
-        <v>2</v>
-      </c>
-      <c r="F94" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" t="s">
-        <v>6</v>
-      </c>
-      <c r="B95" t="s">
-        <v>98</v>
-      </c>
-      <c r="C95" t="s">
-        <v>100</v>
-      </c>
-      <c r="D95">
-        <v>737</v>
-      </c>
-      <c r="E95">
-        <v>2</v>
-      </c>
-      <c r="F95" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" t="s">
-        <v>6</v>
-      </c>
-      <c r="B96" t="s">
-        <v>101</v>
-      </c>
-      <c r="C96" t="s">
-        <v>102</v>
-      </c>
-      <c r="D96">
-        <v>791</v>
-      </c>
-      <c r="E96">
-        <v>2</v>
-      </c>
-      <c r="F96" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" t="s">
-        <v>6</v>
-      </c>
-      <c r="B97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C97" t="s">
-        <v>103</v>
-      </c>
-      <c r="D97">
-        <v>599</v>
-      </c>
-      <c r="E97">
-        <v>1</v>
-      </c>
-      <c r="F97" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" t="s">
-        <v>6</v>
-      </c>
-      <c r="B98" t="s">
-        <v>101</v>
-      </c>
-      <c r="C98" t="s">
-        <v>104</v>
-      </c>
-      <c r="D98">
-        <v>802</v>
-      </c>
-      <c r="E98">
-        <v>3</v>
-      </c>
-      <c r="F98" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" t="s">
-        <v>6</v>
-      </c>
-      <c r="B99" t="s">
-        <v>101</v>
-      </c>
-      <c r="C99" t="s">
-        <v>105</v>
-      </c>
-      <c r="D99">
-        <v>891</v>
-      </c>
-      <c r="E99">
-        <v>2</v>
-      </c>
-      <c r="F99" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" t="s">
-        <v>6</v>
-      </c>
-      <c r="B100" t="s">
-        <v>101</v>
-      </c>
-      <c r="C100" t="s">
-        <v>106</v>
-      </c>
-      <c r="D100">
-        <v>745</v>
-      </c>
-      <c r="E100">
-        <v>0</v>
-      </c>
-      <c r="F100" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
